--- a/MEDIA/0460_拉亞直營營業額(2020-11-01~2020-11-03).xlsx
+++ b/MEDIA/0460_拉亞直營營業額(2020-11-01~2020-11-03).xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA5"/>
+  <dimension ref="A1:AA6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -510,80 +510,80 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>拉亞杭南</t>
+          <t>拉亞楊梅</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>36063</v>
+        <v>33475</v>
       </c>
       <c r="E3" t="n">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="F3" t="n">
-        <v>14718</v>
+        <v>5466</v>
       </c>
       <c r="G3" t="n">
-        <v>40.8</v>
+        <v>16.3</v>
       </c>
       <c r="H3" t="n">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="I3" t="n">
-        <v>7789</v>
+        <v>7586</v>
       </c>
       <c r="J3" t="n">
-        <v>21.6</v>
+        <v>22.7</v>
       </c>
       <c r="K3" t="n">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="L3" t="n">
-        <v>2675</v>
+        <v>7850</v>
       </c>
       <c r="M3" t="n">
-        <v>7.4</v>
+        <v>23.5</v>
       </c>
       <c r="N3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O3" t="n">
-        <v>3890</v>
+        <v>60</v>
       </c>
       <c r="P3" t="n">
-        <v>10.8</v>
+        <v>0.2</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1220</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="T3" t="n">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="U3" t="n">
-        <v>5460</v>
+        <v>10845</v>
       </c>
       <c r="V3" t="n">
-        <v>15.1</v>
+        <v>32.4</v>
       </c>
       <c r="W3" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="X3" t="n">
-        <v>1531</v>
+        <v>448</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.2</v>
+        <v>1.3</v>
       </c>
       <c r="Z3" t="n">
-        <v>246</v>
+        <v>186</v>
       </c>
       <c r="AA3" t="n">
-        <v>147</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4">
@@ -599,161 +599,250 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>拉亞杭南</t>
+          <t>拉亞楊梅</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>28072</v>
+        <v>13450</v>
       </c>
       <c r="E4" t="n">
-        <v>88</v>
+        <v>14</v>
       </c>
       <c r="F4" t="n">
-        <v>10190</v>
+        <v>1250</v>
       </c>
       <c r="G4" t="n">
-        <v>36.3</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H4" t="n">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="I4" t="n">
-        <v>6622</v>
+        <v>4250</v>
       </c>
       <c r="J4" t="n">
-        <v>23.6</v>
+        <v>31.6</v>
       </c>
       <c r="K4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L4" t="n">
-        <v>2519</v>
+        <v>2340</v>
       </c>
       <c r="M4" t="n">
-        <v>9</v>
+        <v>17.4</v>
       </c>
       <c r="N4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>1560</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>5.6</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>1105</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="T4" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="U4" t="n">
-        <v>4240</v>
+        <v>2260</v>
       </c>
       <c r="V4" t="n">
-        <v>15.1</v>
+        <v>16.8</v>
       </c>
       <c r="W4" t="n">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="X4" t="n">
-        <v>2941</v>
+        <v>2245</v>
       </c>
       <c r="Y4" t="n">
-        <v>10.5</v>
+        <v>16.7</v>
       </c>
       <c r="Z4" t="n">
-        <v>251</v>
+        <v>107</v>
       </c>
       <c r="AA4" t="n">
-        <v>112</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr"/>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2020-11-03</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>二</t>
+        </is>
+      </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>拉亞楊梅</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>15370</v>
+      </c>
+      <c r="E5" t="n">
+        <v>11</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1840</v>
+      </c>
+      <c r="G5" t="n">
+        <v>12</v>
+      </c>
+      <c r="H5" t="n">
+        <v>42</v>
+      </c>
+      <c r="I5" t="n">
+        <v>4280</v>
+      </c>
+      <c r="J5" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="K5" t="n">
+        <v>34</v>
+      </c>
+      <c r="L5" t="n">
+        <v>3755</v>
+      </c>
+      <c r="M5" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>8</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1380</v>
+      </c>
+      <c r="S5" t="n">
+        <v>9</v>
+      </c>
+      <c r="T5" t="n">
+        <v>18</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2795</v>
+      </c>
+      <c r="V5" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="W5" t="n">
+        <v>4</v>
+      </c>
+      <c r="X5" t="n">
+        <v>1320</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>117</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>小計</t>
         </is>
       </c>
-      <c r="D5" t="n">
-        <v>64135</v>
-      </c>
-      <c r="E5" t="n">
-        <v>181</v>
-      </c>
-      <c r="F5" t="n">
-        <v>24908</v>
-      </c>
-      <c r="G5" t="n">
-        <v>38.8</v>
-      </c>
-      <c r="H5" t="n">
+      <c r="D6" t="n">
+        <v>62295</v>
+      </c>
+      <c r="E6" t="n">
+        <v>55</v>
+      </c>
+      <c r="F6" t="n">
+        <v>8556</v>
+      </c>
+      <c r="G6" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="H6" t="n">
         <v>141</v>
       </c>
-      <c r="I5" t="n">
-        <v>14411</v>
-      </c>
-      <c r="J5" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K5" t="n">
-        <v>41</v>
-      </c>
-      <c r="L5" t="n">
-        <v>5194</v>
-      </c>
-      <c r="M5" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="N5" t="n">
-        <v>4</v>
-      </c>
-      <c r="O5" t="n">
-        <v>5450</v>
-      </c>
-      <c r="P5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>63</v>
-      </c>
-      <c r="U5" t="n">
-        <v>9700</v>
-      </c>
-      <c r="V5" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="W5" t="n">
-        <v>67</v>
-      </c>
-      <c r="X5" t="n">
-        <v>4472</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>497</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>129</v>
+      <c r="I6" t="n">
+        <v>16116</v>
+      </c>
+      <c r="J6" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K6" t="n">
+        <v>97</v>
+      </c>
+      <c r="L6" t="n">
+        <v>13945</v>
+      </c>
+      <c r="M6" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O6" t="n">
+        <v>60</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>17</v>
+      </c>
+      <c r="R6" t="n">
+        <v>3705</v>
+      </c>
+      <c r="S6" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="T6" t="n">
+        <v>88</v>
+      </c>
+      <c r="U6" t="n">
+        <v>15900</v>
+      </c>
+      <c r="V6" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="W6" t="n">
+        <v>11</v>
+      </c>
+      <c r="X6" t="n">
+        <v>4013</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>410</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
